--- a/downloaded_files/MDPS371_Lecture-35513.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35513.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -172,6 +172,15 @@
   </x:si>
   <x:si>
     <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200264</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود خالد محمد ابو العلا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Khaled Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>4220129</x:t>
@@ -332,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1233,7 +1242,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45922.9338797106</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1378,6 +1387,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.4153402431</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Lecture-35513.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35513.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -154,15 +154,6 @@
   </x:si>
   <x:si>
     <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر وليد السيد ابو النصر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Waleed Elsayed Abo Elnasr</x:t>
   </x:si>
   <x:si>
     <x:t>1210409</x:t>
@@ -341,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1178,7 +1169,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45906.6653526968</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1210,7 +1201,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45922.9338797106</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1242,7 +1233,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45922.9338797106</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1274,7 +1265,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6648384606</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1306,7 +1297,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.6651516551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1387,38 +1378,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Lecture-35513.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35513.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -66,15 +66,6 @@
     <x:t>حسين ياسر محمد ابراهيم صقر</x:t>
   </x:si>
   <x:si>
-    <x:t>1220008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>خالد اشرف وفا محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Khaled ashraf wafa mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210053</x:t>
   </x:si>
   <x:si>
@@ -156,6 +147,24 @@
     <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
+    <x:t>1220133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر خالد مقبل محمد عبد المنعم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Khaled Mokbel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو عماد صبحى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210409</x:t>
   </x:si>
   <x:si>
@@ -181,24 +190,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Mohamed Ashour Hassanin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210307</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى شادي محمود محمد الشجيع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Shady Mahmoud Mohamed Elshagie</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210417</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصعب محمد عبد اللاه على عبد اللاه</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mosaab Mohammed Abdella Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1200305</x:t>
@@ -332,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -787,7 +778,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45915.8966711458</x:v>
+        <x:v>45927.5531835301</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -849,7 +840,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6653211806</x:v>
+        <x:v>45906.6650867245</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -881,7 +872,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6650867245</x:v>
+        <x:v>45927.501515544</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -913,7 +904,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6663643519</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -945,7 +936,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.7101332986</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -977,7 +968,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.7101332986</x:v>
+        <x:v>45912.0309414352</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1009,7 +1000,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.0309414352</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1041,7 +1032,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45912.0304697917</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1073,7 +1064,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.0304697917</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1105,7 +1096,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.0306733796</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1137,7 +1128,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45912.0306733796</x:v>
+        <x:v>45927.4222459143</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1169,7 +1160,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6653526968</x:v>
+        <x:v>45927.4147810532</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1201,7 +1192,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45922.9338797106</x:v>
+        <x:v>45927.6599183218</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1233,7 +1224,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45922.9338797106</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1265,7 +1256,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6648384606</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1297,7 +1288,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6651516551</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1329,7 +1320,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1346,38 +1337,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Lecture-35513.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35513.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -174,6 +174,15 @@
     <x:t>Fatma Abdelaziz Mohamed Abdo</x:t>
   </x:si>
   <x:si>
+    <x:t>1220077</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد امام محمد رضوان ياسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Muhammed emam muhammed radwan</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200264</x:t>
   </x:si>
   <x:si>
@@ -181,6 +190,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Khaled Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود مدحت محمود محمد متولي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud medhat mahmoud mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>4220129</x:t>
@@ -323,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -623,7 +641,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -778,7 +796,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.5531835301</x:v>
+        <x:v>45927.7612845255</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1224,7 +1242,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45922.9338797106</x:v>
+        <x:v>45927.6701080671</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1256,7 +1274,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45922.9338797106</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1288,7 +1306,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45927.6812292477</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1320,7 +1338,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4153402431</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1337,6 +1355,70 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45906.6647594907</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.4153402431</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Lecture-35513.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35513.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>ARWA MOHAMED MAHMOUD MOHAMED IBRAHIM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200330</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد صبرى محمد سالم النحراوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed Sabry Mohamed Salem Elnahrawy</x:t>
   </x:si>
   <x:si>
     <x:t>1220166</x:t>
@@ -341,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -641,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T23"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -764,7 +755,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6719637732</x:v>
+        <x:v>45927.7612845255</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -792,11 +783,9 @@
       <x:c r="C4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="D4" s="2" t="s"/>
       <x:c r="E4" s="3">
-        <x:v>45927.7612845255</x:v>
+        <x:v>45906.6709182523</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -819,14 +808,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s"/>
       <x:c r="E5" s="3">
-        <x:v>45906.6709182523</x:v>
+        <x:v>45906.6650867245</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -858,7 +849,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6650867245</x:v>
+        <x:v>45927.501515544</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -890,7 +881,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.501515544</x:v>
+        <x:v>45906.685368287</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -922,7 +913,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.685368287</x:v>
+        <x:v>45906.7101332986</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -954,7 +945,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.7101332986</x:v>
+        <x:v>45912.0309414352</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -986,7 +977,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.0309414352</x:v>
+        <x:v>45906.5517050116</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1018,7 +1009,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.5517050116</x:v>
+        <x:v>45912.0304697917</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1050,7 +1041,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.0304697917</x:v>
+        <x:v>45906.6653118866</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1082,7 +1073,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6653118866</x:v>
+        <x:v>45912.0306733796</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1114,7 +1105,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.0306733796</x:v>
+        <x:v>45927.4222459143</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1146,7 +1137,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4222459143</x:v>
+        <x:v>45927.4147810532</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1178,7 +1169,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4147810532</x:v>
+        <x:v>45927.6599183218</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1210,7 +1201,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.6599183218</x:v>
+        <x:v>45927.6701080671</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1242,7 +1233,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.6701080671</x:v>
+        <x:v>45922.9338797106</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1274,7 +1265,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45922.9338797106</x:v>
+        <x:v>45927.6812292477</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1306,7 +1297,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.6812292477</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1387,38 +1378,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MDPS371_Lecture-35513.xlsx
+++ b/downloaded_files/MDPS371_Lecture-35513.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -127,15 +127,6 @@
   </x:si>
   <x:si>
     <x:t>ali wael mohammed ali ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220262</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر الوليد محمد السيد إبراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar AlWaleed Mohamed ElSayed</x:t>
   </x:si>
   <x:si>
     <x:t>1220133</x:t>
@@ -332,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1073,7 +1064,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.0306733796</x:v>
+        <x:v>45927.4222459143</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1105,7 +1096,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4222459143</x:v>
+        <x:v>45927.4147810532</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1137,7 +1128,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4147810532</x:v>
+        <x:v>45927.6599183218</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1169,7 +1160,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.6599183218</x:v>
+        <x:v>45927.6701080671</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1201,7 +1192,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.6701080671</x:v>
+        <x:v>45922.9338797106</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1233,7 +1224,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45922.9338797106</x:v>
+        <x:v>45927.6812292477</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1265,7 +1256,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.6812292477</x:v>
+        <x:v>45906.6653583333</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1297,7 +1288,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6653583333</x:v>
+        <x:v>45906.6647594907</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1329,7 +1320,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647594907</x:v>
+        <x:v>45907.4153402431</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1346,38 +1337,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45907.4153402431</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
